--- a/7/2/2/2/2/Hogares e IPSFL 2003 a 2021 - Anual.xlsx
+++ b/7/2/2/2/2/Hogares e IPSFL 2003 a 2021 - Anual.xlsx
@@ -58,7 +58,7 @@
     <t>Reservas técnicas de seguros activos</t>
   </si>
   <si>
-    <t>Reservas técnicas de seguros de vida activos</t>
+    <t>Derechos sobre las reservas de seguros de vida, activos</t>
   </si>
   <si>
     <t>Reservas para primas y para siniestros activos</t>
